--- a/instances/I1_S6.xlsx
+++ b/instances/I1_S6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnrsc-my.sharepoint.com/personal/giuseppe_stecca_cnr_it/Documents/IASI/Research/2024/StochasticWasteCollection/code/instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{F467160D-D703-4472-8511-AD0996037EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F295697-1AF5-4409-BF41-E48F027D5CDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30B944-6617-4C84-9B1B-B4418E1F2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="2568" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -468,12 +468,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -481,7 +481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -489,7 +489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -521,15 +521,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -545,7 +545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -553,7 +553,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -575,9 +575,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -610,7 +610,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -632,7 +632,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -643,7 +643,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -654,7 +654,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -665,7 +665,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -676,7 +676,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -687,7 +687,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -698,7 +698,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -722,9 +722,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -832,12 +832,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -848,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -856,29 +856,29 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -894,9 +894,9 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -904,84 +904,84 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>56.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>95.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>89.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>95.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>93.63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>84.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>90.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>75.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>89.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>59.46</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -994,12 +994,12 @@
   <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1038,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1052,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1066,10 +1066,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1080,10 +1080,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1094,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1108,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1122,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1136,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1150,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1164,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1178,10 +1178,10 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1192,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1206,10 +1206,10 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1220,10 +1220,10 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1234,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1248,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1262,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1276,10 +1276,10 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1290,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1304,10 +1304,10 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1318,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1332,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1346,10 +1346,10 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1360,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1374,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1388,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1402,10 +1402,10 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1416,10 +1416,10 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1430,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1444,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1458,10 +1458,10 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1472,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1486,10 +1486,10 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1500,10 +1500,10 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1514,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1528,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1542,10 +1542,10 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1556,10 +1556,10 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1570,10 +1570,10 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1584,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1598,10 +1598,10 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1612,10 +1612,10 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1626,10 +1626,10 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1640,10 +1640,10 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1654,10 +1654,10 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1668,10 +1668,10 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1682,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -1696,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1710,10 +1710,10 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1724,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1738,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1752,10 +1752,10 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1766,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1780,10 +1780,10 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1794,10 +1794,10 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1808,10 +1808,10 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1822,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25.73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1836,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1850,10 +1850,10 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1864,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1878,10 +1878,10 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -1892,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5</v>
       </c>
@@ -1906,10 +1906,10 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -1920,10 +1920,10 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -1948,10 +1948,10 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -1962,10 +1962,10 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -1976,10 +1976,10 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -1990,10 +1990,10 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2004,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2018,10 +2018,10 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -2032,10 +2032,10 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5</v>
       </c>
@@ -2046,10 +2046,10 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -2060,10 +2060,10 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -2074,10 +2074,10 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6</v>
       </c>
@@ -2088,10 +2088,10 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -2102,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -2116,10 +2116,10 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2130,10 +2130,10 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
@@ -2144,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -2158,10 +2158,10 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6</v>
       </c>
@@ -2172,10 +2172,10 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -2186,10 +2186,10 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -2200,10 +2200,10 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -2214,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -2228,10 +2228,10 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6</v>
       </c>
@@ -2242,10 +2242,10 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
@@ -2256,10 +2256,10 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -2270,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7</v>
       </c>
@@ -2284,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
@@ -2298,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -2312,10 +2312,10 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7</v>
       </c>
@@ -2326,10 +2326,10 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7</v>
       </c>
@@ -2340,10 +2340,10 @@
         <v>5</v>
       </c>
       <c r="D96">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7</v>
       </c>
@@ -2354,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -2368,10 +2368,10 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7</v>
       </c>
@@ -2382,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7</v>
       </c>
@@ -2396,10 +2396,10 @@
         <v>4</v>
       </c>
       <c r="D100">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>7</v>
       </c>
@@ -2410,10 +2410,10 @@
         <v>5</v>
       </c>
       <c r="D101">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7</v>
       </c>
@@ -2424,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7</v>
       </c>
@@ -2438,10 +2438,10 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -2452,10 +2452,10 @@
         <v>3</v>
       </c>
       <c r="D104">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7</v>
       </c>
@@ -2466,10 +2466,10 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7</v>
       </c>
@@ -2480,10 +2480,10 @@
         <v>5</v>
       </c>
       <c r="D106">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8</v>
       </c>
@@ -2494,10 +2494,10 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>8</v>
       </c>
@@ -2508,10 +2508,10 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8</v>
       </c>
@@ -2522,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="D109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>8</v>
       </c>
@@ -2536,10 +2536,10 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8</v>
       </c>
@@ -2550,10 +2550,10 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8</v>
       </c>
@@ -2564,10 +2564,10 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
@@ -2578,10 +2578,10 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>8</v>
       </c>
@@ -2592,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="D114">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>8</v>
       </c>
@@ -2606,10 +2606,10 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>8</v>
       </c>
@@ -2620,10 +2620,10 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>8</v>
       </c>
@@ -2634,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>8</v>
       </c>
@@ -2648,10 +2648,10 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>8</v>
       </c>
@@ -2662,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="D119">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>8</v>
       </c>
@@ -2676,10 +2676,10 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>8</v>
       </c>
@@ -2690,10 +2690,10 @@
         <v>5</v>
       </c>
       <c r="D121">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>9</v>
       </c>
@@ -2704,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>9</v>
       </c>
@@ -2718,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>9</v>
       </c>
@@ -2732,10 +2732,10 @@
         <v>3</v>
       </c>
       <c r="D124">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>9</v>
       </c>
@@ -2746,10 +2746,10 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>9</v>
       </c>
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9</v>
       </c>
@@ -2774,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>9</v>
       </c>
@@ -2788,10 +2788,10 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>9</v>
       </c>
@@ -2802,10 +2802,10 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9</v>
       </c>
@@ -2816,10 +2816,10 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>9</v>
       </c>
@@ -2830,10 +2830,10 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
@@ -2844,10 +2844,10 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>9</v>
       </c>
@@ -2858,10 +2858,10 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>9</v>
       </c>
@@ -2872,10 +2872,10 @@
         <v>3</v>
       </c>
       <c r="D134">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9</v>
       </c>
@@ -2886,10 +2886,10 @@
         <v>4</v>
       </c>
       <c r="D135">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9</v>
       </c>
@@ -2900,10 +2900,10 @@
         <v>5</v>
       </c>
       <c r="D136">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10</v>
       </c>
@@ -2914,10 +2914,10 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>10</v>
       </c>
@@ -2928,10 +2928,10 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>10</v>
       </c>
@@ -2942,10 +2942,10 @@
         <v>3</v>
       </c>
       <c r="D139">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10</v>
       </c>
@@ -2956,10 +2956,10 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>10</v>
       </c>
@@ -2970,10 +2970,10 @@
         <v>5</v>
       </c>
       <c r="D141">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>10</v>
       </c>
@@ -2984,10 +2984,10 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>10</v>
       </c>
@@ -2998,10 +2998,10 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>10</v>
       </c>
@@ -3012,10 +3012,10 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>10</v>
       </c>
@@ -3026,10 +3026,10 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>10</v>
       </c>
@@ -3040,10 +3040,10 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>10</v>
       </c>
@@ -3054,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>10</v>
       </c>
@@ -3068,10 +3068,10 @@
         <v>2</v>
       </c>
       <c r="D148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>10</v>
       </c>
@@ -3082,10 +3082,10 @@
         <v>3</v>
       </c>
       <c r="D149">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10</v>
       </c>
@@ -3096,10 +3096,10 @@
         <v>4</v>
       </c>
       <c r="D150">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10</v>
       </c>
@@ -3110,15 +3110,10 @@
         <v>5</v>
       </c>
       <c r="D151">
-        <v>40</v>
+        <v>17.739999999999998</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D152">
-    <sortCondition ref="A2:A152"/>
-    <sortCondition ref="B2:B152"/>
-    <sortCondition ref="C2:C152"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>